--- a/Source/Test/Data/Test7.xlsx
+++ b/Source/Test/Data/Test7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Excel.Report.PDF\Source\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DFE8A2-330C-4B30-B4C0-01019E443E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35097E2-F5E3-474C-BB25-1C2247E7FD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16755" yWindow="8820" windowWidth="23205" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12345" yWindow="11460" windowWidth="31125" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,6 +191,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1047878</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>866880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5858BE-DB91-4889-838C-97DAFC6EF78D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="1724025"/>
+          <a:ext cx="914528" cy="752580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>828675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1143128</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>333497</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB3C9617-1218-2283-D5C1-31922D9671B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905250" y="1066800"/>
+          <a:ext cx="914528" cy="876422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371613</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1066934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E68B09-43B8-67E0-84F5-833036BC4BD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057525" y="1714500"/>
+          <a:ext cx="990738" cy="962159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -457,19 +589,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="108" customHeight="1">
+    <row r="2" spans="2:5" ht="108" customHeight="1">
       <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:5" ht="94.5" customHeight="1">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
